--- a/отчеты Останкино (поставки)/Останкино_недогрузы/ПРИХОДЫ/Мелитополь/2025/08,25/Мелитополь 01,08 0000-002838.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/ПРИХОДЫ/Мелитополь/2025/08,25/Мелитополь 01,08 0000-002838.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Ost_orders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55E01CF-E6C0-4F25-8673-56CE9CFC26B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
 </workbook>
 </file>
 
-<file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Номенклатура</t>
@@ -198,57 +204,26 @@
 </sst>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="50" formatCode=""/>
-    <numFmt numFmtId="51" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <family val="0"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="4D4D4D"/>
-      <sz val="10"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="333333"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,14 +235,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F2F2F2"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -281,16 +256,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="A0A0A0"/>
+        <color rgb="FFA0A0A0"/>
       </left>
       <right style="thin">
-        <color rgb="A0A0A0"/>
+        <color rgb="FFA0A0A0"/>
       </right>
       <top style="thin">
-        <color rgb="A0A0A0"/>
+        <color rgb="FFA0A0A0"/>
       </top>
       <bottom style="thin">
-        <color rgb="A0A0A0"/>
+        <color rgb="FFA0A0A0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -299,17 +274,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -318,30 +293,355 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B59"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.16796875" style="1" customWidth="true"/>
-    <col min="2" max="2" width="15.16796875" style="1" customWidth="true"/>
+    <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="true">
+    <row r="1" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -349,474 +649,471 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="11" customHeight="true">
+    <row r="2" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="true">
+    <row r="3" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>506.062</v>
-      </c>
-    </row>
-    <row r="4" ht="11" customHeight="true">
+      <c r="B3" s="4">
+        <v>506.06200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>624</v>
       </c>
     </row>
-    <row r="5" ht="11" customHeight="true">
+    <row r="5" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>160.801</v>
-      </c>
-    </row>
-    <row r="6" ht="11" customHeight="true">
+      <c r="B5" s="4">
+        <v>160.80099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>430.953</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+      <c r="B6" s="4">
+        <v>430.95299999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="8" ht="11" customHeight="true">
+    <row r="8" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>353.924</v>
-      </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
+      <c r="B8" s="4">
+        <v>353.92399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="10" ht="11" customHeight="true">
+    <row r="10" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="true">
+    <row r="11" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="11" customHeight="true">
+    <row r="12" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>346.125</v>
       </c>
     </row>
-    <row r="13" ht="11" customHeight="true">
+    <row r="13" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="true">
+    <row r="14" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="11" customHeight="true">
+    <row r="15" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="16" ht="11" customHeight="true">
+    <row r="16" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>458.862</v>
-      </c>
-    </row>
-    <row r="17" ht="11" customHeight="true">
+      <c r="B16" s="4">
+        <v>458.86200000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="18" ht="11" customHeight="true">
+    <row r="18" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="19" ht="11" customHeight="true">
+    <row r="19" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="20" ht="11" customHeight="true">
+    <row r="20" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>416</v>
       </c>
     </row>
-    <row r="21" ht="11" customHeight="true">
+    <row r="21" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>418.247</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+      <c r="B21" s="4">
+        <v>418.24700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>604.719</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+      <c r="B22" s="4">
+        <v>604.71900000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true">
+    <row r="24" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>656</v>
       </c>
     </row>
-    <row r="25" ht="11" customHeight="true">
+    <row r="25" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>356.138</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+      <c r="B25" s="4">
+        <v>356.13799999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="4">
         <v>130.65</v>
       </c>
     </row>
-    <row r="27" ht="11" customHeight="true">
+    <row r="27" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="11" customHeight="true">
+    <row r="28" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="4">
         <v>640</v>
       </c>
     </row>
-    <row r="29" ht="11" customHeight="true">
+    <row r="29" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="30" ht="11" customHeight="true">
+    <row r="30" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>351.471</v>
       </c>
     </row>
-    <row r="31" ht="11" customHeight="true">
+    <row r="31" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="n">
-        <v>308.894</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true">
+      <c r="B31" s="4">
+        <v>308.89400000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="n">
-        <v>333.669</v>
-      </c>
-    </row>
-    <row r="33" ht="11" customHeight="true">
+      <c r="B32" s="4">
+        <v>333.66899999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>456</v>
       </c>
     </row>
-    <row r="34" ht="11" customHeight="true">
+    <row r="34" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>432</v>
       </c>
     </row>
-    <row r="35" ht="11" customHeight="true">
+    <row r="35" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="36" ht="11" customHeight="true">
+    <row r="36" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="11" customHeight="true">
+    <row r="37" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="4">
         <v>488</v>
       </c>
     </row>
-    <row r="38" ht="11" customHeight="true">
+    <row r="38" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="4">
         <v>232</v>
       </c>
     </row>
-    <row r="39" ht="11" customHeight="true">
+    <row r="39" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="4">
         <v>480</v>
       </c>
     </row>
-    <row r="40" ht="11" customHeight="true">
+    <row r="40" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="4">
         <v>512</v>
       </c>
     </row>
-    <row r="41" ht="11" customHeight="true">
+    <row r="41" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>421.891</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true">
+      <c r="B41" s="4">
+        <v>421.89100000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="n">
-        <v>362.109</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true">
+      <c r="B42" s="4">
+        <v>362.10899999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="4">
         <v>336</v>
       </c>
     </row>
-    <row r="44" ht="11" customHeight="true">
+    <row r="44" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="n">
-        <v>87.453</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
+      <c r="B44" s="4">
+        <v>87.453000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="4">
         <v>320</v>
       </c>
     </row>
-    <row r="46" ht="11" customHeight="true">
+    <row r="46" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="4">
         <v>296</v>
       </c>
     </row>
-    <row r="47" ht="11" customHeight="true">
+    <row r="47" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="48" ht="11" customHeight="true">
+    <row r="48" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="4">
         <v>12.147</v>
       </c>
     </row>
-    <row r="49" ht="11" customHeight="true">
+    <row r="49" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="50" ht="11" customHeight="true">
+    <row r="50" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="4">
         <v>208</v>
       </c>
     </row>
-    <row r="51" ht="11" customHeight="true">
+    <row r="51" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="4" t="n">
-        <v>35.265</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true">
+      <c r="B51" s="4">
+        <v>35.265000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="4">
         <v>448</v>
       </c>
     </row>
-    <row r="53" ht="11" customHeight="true">
+    <row r="53" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="54" ht="11" customHeight="true">
+    <row r="54" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4" t="n">
-        <v>16.016</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true">
+      <c r="B54" s="4">
+        <v>16.015999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="4" t="n">
-        <v>23.735</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true">
+      <c r="B55" s="4">
+        <v>23.734999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="4">
         <v>544</v>
       </c>
     </row>
-    <row r="57" ht="11" customHeight="true">
+    <row r="57" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4" t="n">
-        <v>32.934</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
+      <c r="B57" s="4">
+        <v>32.933999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="59" ht="11" customHeight="true">
+    <row r="59" spans="1:2" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="4">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" top="0.75" right="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId5"/>
+  <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>